--- a/natmiOut/OldD2/LR-pairs_lrc2p/F8-Ldlr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/F8-Ldlr.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.07410492005487</v>
+        <v>5.096137000000001</v>
       </c>
       <c r="H2">
-        <v>5.07410492005487</v>
+        <v>10.192274</v>
       </c>
       <c r="I2">
-        <v>0.5805737254136637</v>
+        <v>0.5636530534423333</v>
       </c>
       <c r="J2">
-        <v>0.5805737254136637</v>
+        <v>0.4744570273450183</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.78334550536005</v>
+        <v>2.7846805</v>
       </c>
       <c r="N2">
-        <v>2.78334550536005</v>
+        <v>5.569361</v>
       </c>
       <c r="O2">
-        <v>0.05977107205645091</v>
+        <v>0.05544016620420027</v>
       </c>
       <c r="P2">
-        <v>0.05977107205645091</v>
+        <v>0.03953565392176784</v>
       </c>
       <c r="Q2">
-        <v>14.12298712296004</v>
+        <v>14.1911133292285</v>
       </c>
       <c r="R2">
-        <v>14.12298712296004</v>
+        <v>56.76445331691401</v>
       </c>
       <c r="S2">
-        <v>0.03470151397578224</v>
+        <v>0.03124901896434794</v>
       </c>
       <c r="T2">
-        <v>0.03470151397578224</v>
+        <v>0.01875796883386338</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.07410492005487</v>
+        <v>5.096137000000001</v>
       </c>
       <c r="H3">
-        <v>5.07410492005487</v>
+        <v>10.192274</v>
       </c>
       <c r="I3">
-        <v>0.5805737254136637</v>
+        <v>0.5636530534423333</v>
       </c>
       <c r="J3">
-        <v>0.5805737254136637</v>
+        <v>0.4744570273450183</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.7886756952986</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N3">
-        <v>14.7886756952986</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O3">
-        <v>0.3175800485067096</v>
+        <v>0.3120250095359898</v>
       </c>
       <c r="P3">
-        <v>0.3175800485067096</v>
+        <v>0.3337682848888156</v>
       </c>
       <c r="Q3">
-        <v>75.0392921066105</v>
+        <v>79.86957065693936</v>
       </c>
       <c r="R3">
-        <v>75.0392921066105</v>
+        <v>479.2174239416361</v>
       </c>
       <c r="S3">
-        <v>0.1843786318785924</v>
+        <v>0.1758738493753338</v>
       </c>
       <c r="T3">
-        <v>0.1843786318785924</v>
+        <v>0.1583587082703926</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.07410492005487</v>
+        <v>5.096137000000001</v>
       </c>
       <c r="H4">
-        <v>5.07410492005487</v>
+        <v>10.192274</v>
       </c>
       <c r="I4">
-        <v>0.5805737254136637</v>
+        <v>0.5636530534423333</v>
       </c>
       <c r="J4">
-        <v>0.5805737254136637</v>
+        <v>0.4744570273450183</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.66838361848388</v>
+        <v>11.031218</v>
       </c>
       <c r="N4">
-        <v>9.66838361848388</v>
+        <v>33.093654</v>
       </c>
       <c r="O4">
-        <v>0.2076241173856907</v>
+        <v>0.2196203691428032</v>
       </c>
       <c r="P4">
-        <v>0.2076241173856907</v>
+        <v>0.2349244826382646</v>
       </c>
       <c r="Q4">
-        <v>49.05839288752696</v>
+        <v>56.21659820486601</v>
       </c>
       <c r="R4">
-        <v>49.05839288752696</v>
+        <v>337.299589229196</v>
       </c>
       <c r="S4">
-        <v>0.1205411073163343</v>
+        <v>0.1237896916654734</v>
       </c>
       <c r="T4">
-        <v>0.1205411073163343</v>
+        <v>0.1114615716831174</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.07410492005487</v>
+        <v>5.096137000000001</v>
       </c>
       <c r="H5">
-        <v>5.07410492005487</v>
+        <v>10.192274</v>
       </c>
       <c r="I5">
-        <v>0.5805737254136637</v>
+        <v>0.5636530534423333</v>
       </c>
       <c r="J5">
-        <v>0.5805737254136637</v>
+        <v>0.4744570273450183</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.9309490561159</v>
+        <v>11.60895133333333</v>
       </c>
       <c r="N5">
-        <v>10.9309490561159</v>
+        <v>34.826854</v>
       </c>
       <c r="O5">
-        <v>0.2347371328569503</v>
+        <v>0.2311224542192443</v>
       </c>
       <c r="P5">
-        <v>0.2347371328569503</v>
+        <v>0.2472280836038346</v>
       </c>
       <c r="Q5">
-        <v>55.46478238650682</v>
+        <v>59.16080642099934</v>
       </c>
       <c r="R5">
-        <v>55.46478238650682</v>
+        <v>354.964838525996</v>
       </c>
       <c r="S5">
-        <v>0.1362822117156818</v>
+        <v>0.1302728770397629</v>
       </c>
       <c r="T5">
-        <v>0.1362822117156818</v>
+        <v>0.117299101622881</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.07410492005487</v>
+        <v>5.096137000000001</v>
       </c>
       <c r="H6">
-        <v>5.07410492005487</v>
+        <v>10.192274</v>
       </c>
       <c r="I6">
-        <v>0.5805737254136637</v>
+        <v>0.5636530534423333</v>
       </c>
       <c r="J6">
-        <v>0.5805737254136637</v>
+        <v>0.4744570273450183</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.95231111174481</v>
+        <v>2.099439</v>
       </c>
       <c r="N6">
-        <v>1.95231111174481</v>
+        <v>6.298317</v>
       </c>
       <c r="O6">
-        <v>0.04192498843998662</v>
+        <v>0.04179770249965122</v>
       </c>
       <c r="P6">
-        <v>0.04192498843998662</v>
+        <v>0.04471035029002197</v>
       </c>
       <c r="Q6">
-        <v>9.906231417582132</v>
+        <v>10.699028767143</v>
       </c>
       <c r="R6">
-        <v>9.906231417582132</v>
+        <v>64.194172602858</v>
       </c>
       <c r="S6">
-        <v>0.02434054672652782</v>
+        <v>0.02355940264080266</v>
       </c>
       <c r="T6">
-        <v>0.02434054672652782</v>
+        <v>0.0212131398901583</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.07410492005487</v>
+        <v>5.096137000000001</v>
       </c>
       <c r="H7">
-        <v>5.07410492005487</v>
+        <v>10.192274</v>
       </c>
       <c r="I7">
-        <v>0.5805737254136637</v>
+        <v>0.5636530534423333</v>
       </c>
       <c r="J7">
-        <v>0.5805737254136637</v>
+        <v>0.4744570273450183</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.44310066731384</v>
+        <v>7.031714</v>
       </c>
       <c r="N7">
-        <v>6.44310066731384</v>
+        <v>14.063428</v>
       </c>
       <c r="O7">
-        <v>0.1383626407542117</v>
+        <v>0.1399942983981114</v>
       </c>
       <c r="P7">
-        <v>0.1383626407542117</v>
+        <v>0.09983314465729545</v>
       </c>
       <c r="Q7">
-        <v>32.69296879642597</v>
+        <v>35.834577888818</v>
       </c>
       <c r="R7">
-        <v>32.69296879642597</v>
+        <v>143.338311555272</v>
       </c>
       <c r="S7">
-        <v>0.08032971380074512</v>
+        <v>0.07890821375661262</v>
       </c>
       <c r="T7">
-        <v>0.08032971380074512</v>
+        <v>0.0473665370446056</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.347283572867315</v>
+        <v>0.351338</v>
       </c>
       <c r="H8">
-        <v>0.347283572867315</v>
+        <v>1.054014</v>
       </c>
       <c r="I8">
-        <v>0.03973581958813029</v>
+        <v>0.03885938240873871</v>
       </c>
       <c r="J8">
-        <v>0.03973581958813029</v>
+        <v>0.04906504173848075</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.78334550536005</v>
+        <v>2.7846805</v>
       </c>
       <c r="N8">
-        <v>2.78334550536005</v>
+        <v>5.569361</v>
       </c>
       <c r="O8">
-        <v>0.05977107205645091</v>
+        <v>0.05544016620420027</v>
       </c>
       <c r="P8">
-        <v>0.05977107205645091</v>
+        <v>0.03953565392176784</v>
       </c>
       <c r="Q8">
-        <v>0.9666101716256206</v>
+        <v>0.9783640775089999</v>
       </c>
       <c r="R8">
-        <v>0.9666101716256206</v>
+        <v>5.870184465054</v>
       </c>
       <c r="S8">
-        <v>0.002375052535824269</v>
+        <v>0.002154370619333051</v>
       </c>
       <c r="T8">
-        <v>0.002375052535824269</v>
+        <v>0.001939818509829669</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.347283572867315</v>
+        <v>0.351338</v>
       </c>
       <c r="H9">
-        <v>0.347283572867315</v>
+        <v>1.054014</v>
       </c>
       <c r="I9">
-        <v>0.03973581958813029</v>
+        <v>0.03885938240873871</v>
       </c>
       <c r="J9">
-        <v>0.03973581958813029</v>
+        <v>0.04906504173848075</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.7886756952986</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N9">
-        <v>14.7886756952986</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O9">
-        <v>0.3175800485067096</v>
+        <v>0.3120250095359898</v>
       </c>
       <c r="P9">
-        <v>0.3175800485067096</v>
+        <v>0.3337682848888156</v>
       </c>
       <c r="Q9">
-        <v>5.135864133439322</v>
+        <v>5.506369867110667</v>
       </c>
       <c r="R9">
-        <v>5.135864133439322</v>
+        <v>49.55732880399601</v>
       </c>
       <c r="S9">
-        <v>0.01261930351225228</v>
+        <v>0.01212509916664937</v>
       </c>
       <c r="T9">
-        <v>0.01261930351225228</v>
+        <v>0.01637635482905087</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.347283572867315</v>
+        <v>0.351338</v>
       </c>
       <c r="H10">
-        <v>0.347283572867315</v>
+        <v>1.054014</v>
       </c>
       <c r="I10">
-        <v>0.03973581958813029</v>
+        <v>0.03885938240873871</v>
       </c>
       <c r="J10">
-        <v>0.03973581958813029</v>
+        <v>0.04906504173848075</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.66838361848388</v>
+        <v>11.031218</v>
       </c>
       <c r="N10">
-        <v>9.66838361848388</v>
+        <v>33.093654</v>
       </c>
       <c r="O10">
-        <v>0.2076241173856907</v>
+        <v>0.2196203691428032</v>
       </c>
       <c r="P10">
-        <v>0.2076241173856907</v>
+        <v>0.2349244826382646</v>
       </c>
       <c r="Q10">
-        <v>3.357670806878901</v>
+        <v>3.875686069684</v>
       </c>
       <c r="R10">
-        <v>3.357670806878901</v>
+        <v>34.881174627156</v>
       </c>
       <c r="S10">
-        <v>0.008250114470582591</v>
+        <v>0.008534311909268549</v>
       </c>
       <c r="T10">
-        <v>0.008250114470582591</v>
+        <v>0.01152657954603745</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.347283572867315</v>
+        <v>0.351338</v>
       </c>
       <c r="H11">
-        <v>0.347283572867315</v>
+        <v>1.054014</v>
       </c>
       <c r="I11">
-        <v>0.03973581958813029</v>
+        <v>0.03885938240873871</v>
       </c>
       <c r="J11">
-        <v>0.03973581958813029</v>
+        <v>0.04906504173848075</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.9309490561159</v>
+        <v>11.60895133333333</v>
       </c>
       <c r="N11">
-        <v>10.9309490561159</v>
+        <v>34.826854</v>
       </c>
       <c r="O11">
-        <v>0.2347371328569503</v>
+        <v>0.2311224542192443</v>
       </c>
       <c r="P11">
-        <v>0.2347371328569503</v>
+        <v>0.2472280836038346</v>
       </c>
       <c r="Q11">
-        <v>3.796139043038534</v>
+        <v>4.078665743550666</v>
       </c>
       <c r="R11">
-        <v>3.796139043038534</v>
+        <v>36.707991691956</v>
       </c>
       <c r="S11">
-        <v>0.009327472361838748</v>
+        <v>0.008981275831751821</v>
       </c>
       <c r="T11">
-        <v>0.009327472361838748</v>
+        <v>0.01213025624094675</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.347283572867315</v>
+        <v>0.351338</v>
       </c>
       <c r="H12">
-        <v>0.347283572867315</v>
+        <v>1.054014</v>
       </c>
       <c r="I12">
-        <v>0.03973581958813029</v>
+        <v>0.03885938240873871</v>
       </c>
       <c r="J12">
-        <v>0.03973581958813029</v>
+        <v>0.04906504173848075</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.95231111174481</v>
+        <v>2.099439</v>
       </c>
       <c r="N12">
-        <v>1.95231111174481</v>
+        <v>6.298317</v>
       </c>
       <c r="O12">
-        <v>0.04192498843998662</v>
+        <v>0.04179770249965122</v>
       </c>
       <c r="P12">
-        <v>0.04192498843998662</v>
+        <v>0.04471035029002197</v>
       </c>
       <c r="Q12">
-        <v>0.6780055782352974</v>
+        <v>0.7376126993819999</v>
       </c>
       <c r="R12">
-        <v>0.6780055782352974</v>
+        <v>6.638514294438</v>
       </c>
       <c r="S12">
-        <v>0.001665923776885756</v>
+        <v>0.001624232905240641</v>
       </c>
       <c r="T12">
-        <v>0.001665923776885756</v>
+        <v>0.002193715203122022</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.347283572867315</v>
+        <v>0.351338</v>
       </c>
       <c r="H13">
-        <v>0.347283572867315</v>
+        <v>1.054014</v>
       </c>
       <c r="I13">
-        <v>0.03973581958813029</v>
+        <v>0.03885938240873871</v>
       </c>
       <c r="J13">
-        <v>0.03973581958813029</v>
+        <v>0.04906504173848075</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.44310066731384</v>
+        <v>7.031714</v>
       </c>
       <c r="N13">
-        <v>6.44310066731384</v>
+        <v>14.063428</v>
       </c>
       <c r="O13">
-        <v>0.1383626407542117</v>
+        <v>0.1399942983981114</v>
       </c>
       <c r="P13">
-        <v>0.1383626407542117</v>
+        <v>0.09983314465729545</v>
       </c>
       <c r="Q13">
-        <v>2.237583020088532</v>
+        <v>2.470508333332</v>
       </c>
       <c r="R13">
-        <v>2.237583020088532</v>
+        <v>14.823049999992</v>
       </c>
       <c r="S13">
-        <v>0.005497952930746642</v>
+        <v>0.005440091976495288</v>
       </c>
       <c r="T13">
-        <v>0.005497952930746642</v>
+        <v>0.004898317409493987</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.102262841073909</v>
+        <v>0.1440186666666667</v>
       </c>
       <c r="H14">
-        <v>0.102262841073909</v>
+        <v>0.432056</v>
       </c>
       <c r="I14">
-        <v>0.01170080626023451</v>
+        <v>0.01592903825375186</v>
       </c>
       <c r="J14">
-        <v>0.01170080626023451</v>
+        <v>0.02011248965702641</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.78334550536005</v>
+        <v>2.7846805</v>
       </c>
       <c r="N14">
-        <v>2.78334550536005</v>
+        <v>5.569361</v>
       </c>
       <c r="O14">
-        <v>0.05977107205645091</v>
+        <v>0.05544016620420027</v>
       </c>
       <c r="P14">
-        <v>0.05977107205645091</v>
+        <v>0.03953565392176784</v>
       </c>
       <c r="Q14">
-        <v>0.2846328190684137</v>
+        <v>0.4010459727026666</v>
       </c>
       <c r="R14">
-        <v>0.2846328190684137</v>
+        <v>2.406275836216</v>
       </c>
       <c r="S14">
-        <v>0.0006993697340990491</v>
+        <v>0.0008831085282610672</v>
       </c>
       <c r="T14">
-        <v>0.0006993697340990491</v>
+        <v>0.0007951604305853314</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.102262841073909</v>
+        <v>0.1440186666666667</v>
       </c>
       <c r="H15">
-        <v>0.102262841073909</v>
+        <v>0.432056</v>
       </c>
       <c r="I15">
-        <v>0.01170080626023451</v>
+        <v>0.01592903825375186</v>
       </c>
       <c r="J15">
-        <v>0.01170080626023451</v>
+        <v>0.02011248965702641</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.7886756952986</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N15">
-        <v>14.7886756952986</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O15">
-        <v>0.3175800485067096</v>
+        <v>0.3120250095359898</v>
       </c>
       <c r="P15">
-        <v>0.3175800485067096</v>
+        <v>0.3337682848888156</v>
       </c>
       <c r="Q15">
-        <v>1.512331992321901</v>
+        <v>2.257142826664889</v>
       </c>
       <c r="R15">
-        <v>1.512331992321901</v>
+        <v>20.314285439984</v>
       </c>
       <c r="S15">
-        <v>0.003715942619692888</v>
+        <v>0.004970258313026069</v>
       </c>
       <c r="T15">
-        <v>0.003715942619692888</v>
+        <v>0.006712911177669749</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.102262841073909</v>
+        <v>0.1440186666666667</v>
       </c>
       <c r="H16">
-        <v>0.102262841073909</v>
+        <v>0.432056</v>
       </c>
       <c r="I16">
-        <v>0.01170080626023451</v>
+        <v>0.01592903825375186</v>
       </c>
       <c r="J16">
-        <v>0.01170080626023451</v>
+        <v>0.02011248965702641</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.66838361848388</v>
+        <v>11.031218</v>
       </c>
       <c r="N16">
-        <v>9.66838361848388</v>
+        <v>33.093654</v>
       </c>
       <c r="O16">
-        <v>0.2076241173856907</v>
+        <v>0.2196203691428032</v>
       </c>
       <c r="P16">
-        <v>0.2076241173856907</v>
+        <v>0.2349244826382646</v>
       </c>
       <c r="Q16">
-        <v>0.9887163774186022</v>
+        <v>1.588701308069333</v>
       </c>
       <c r="R16">
-        <v>0.9887163774186022</v>
+        <v>14.298311772624</v>
       </c>
       <c r="S16">
-        <v>0.002429369572482155</v>
+        <v>0.003498341261378816</v>
       </c>
       <c r="T16">
-        <v>0.002429369572482155</v>
+        <v>0.004724916227244378</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.102262841073909</v>
+        <v>0.1440186666666667</v>
       </c>
       <c r="H17">
-        <v>0.102262841073909</v>
+        <v>0.432056</v>
       </c>
       <c r="I17">
-        <v>0.01170080626023451</v>
+        <v>0.01592903825375186</v>
       </c>
       <c r="J17">
-        <v>0.01170080626023451</v>
+        <v>0.02011248965702641</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.9309490561159</v>
+        <v>11.60895133333333</v>
       </c>
       <c r="N17">
-        <v>10.9309490561159</v>
+        <v>34.826854</v>
       </c>
       <c r="O17">
-        <v>0.2347371328569503</v>
+        <v>0.2311224542192443</v>
       </c>
       <c r="P17">
-        <v>0.2347371328569503</v>
+        <v>0.2472280836038346</v>
       </c>
       <c r="Q17">
-        <v>1.117829906112576</v>
+        <v>1.671905692424889</v>
       </c>
       <c r="R17">
-        <v>1.117829906112576</v>
+        <v>15.047151231824</v>
       </c>
       <c r="S17">
-        <v>0.002746613713642105</v>
+        <v>0.003681558414559355</v>
       </c>
       <c r="T17">
-        <v>0.002746613713642105</v>
+        <v>0.004972372274408585</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.102262841073909</v>
+        <v>0.1440186666666667</v>
       </c>
       <c r="H18">
-        <v>0.102262841073909</v>
+        <v>0.432056</v>
       </c>
       <c r="I18">
-        <v>0.01170080626023451</v>
+        <v>0.01592903825375186</v>
       </c>
       <c r="J18">
-        <v>0.01170080626023451</v>
+        <v>0.02011248965702641</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.95231111174481</v>
+        <v>2.099439</v>
       </c>
       <c r="N18">
-        <v>1.95231111174481</v>
+        <v>6.298317</v>
       </c>
       <c r="O18">
-        <v>0.04192498843998662</v>
+        <v>0.04179770249965122</v>
       </c>
       <c r="P18">
-        <v>0.04192498843998662</v>
+        <v>0.04471035029002197</v>
       </c>
       <c r="Q18">
-        <v>0.1996488809471861</v>
+        <v>0.302358405528</v>
       </c>
       <c r="R18">
-        <v>0.1996488809471861</v>
+        <v>2.721225649752</v>
       </c>
       <c r="S18">
-        <v>0.0004905561671988551</v>
+        <v>0.000665797202035884</v>
       </c>
       <c r="T18">
-        <v>0.0004905561671988551</v>
+        <v>0.0008992364577700947</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.102262841073909</v>
+        <v>0.1440186666666667</v>
       </c>
       <c r="H19">
-        <v>0.102262841073909</v>
+        <v>0.432056</v>
       </c>
       <c r="I19">
-        <v>0.01170080626023451</v>
+        <v>0.01592903825375186</v>
       </c>
       <c r="J19">
-        <v>0.01170080626023451</v>
+        <v>0.02011248965702641</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.44310066731384</v>
+        <v>7.031714</v>
       </c>
       <c r="N19">
-        <v>6.44310066731384</v>
+        <v>14.063428</v>
       </c>
       <c r="O19">
-        <v>0.1383626407542117</v>
+        <v>0.1399942983981114</v>
       </c>
       <c r="P19">
-        <v>0.1383626407542117</v>
+        <v>0.09983314465729545</v>
       </c>
       <c r="Q19">
-        <v>0.6588897795647122</v>
+        <v>1.012698074661333</v>
       </c>
       <c r="R19">
-        <v>0.6588897795647122</v>
+        <v>6.076188447968</v>
       </c>
       <c r="S19">
-        <v>0.00161895445311946</v>
+        <v>0.002229974534490669</v>
       </c>
       <c r="T19">
-        <v>0.00161895445311946</v>
+        <v>0.002007893089348276</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.142017893942207</v>
+        <v>0.1477046666666667</v>
       </c>
       <c r="H20">
-        <v>0.142017893942207</v>
+        <v>0.443114</v>
       </c>
       <c r="I20">
-        <v>0.01624953741802763</v>
+        <v>0.01633672453749746</v>
       </c>
       <c r="J20">
-        <v>0.01624953741802763</v>
+        <v>0.02062724679644213</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.78334550536005</v>
+        <v>2.7846805</v>
       </c>
       <c r="N20">
-        <v>2.78334550536005</v>
+        <v>5.569361</v>
       </c>
       <c r="O20">
-        <v>0.05977107205645091</v>
+        <v>0.05544016620420027</v>
       </c>
       <c r="P20">
-        <v>0.05977107205645091</v>
+        <v>0.03953565392176784</v>
       </c>
       <c r="Q20">
-        <v>0.3952848667847422</v>
+        <v>0.4113103050256667</v>
       </c>
       <c r="R20">
-        <v>0.3952848667847422</v>
+        <v>2.467861830154</v>
       </c>
       <c r="S20">
-        <v>0.0009712522718969246</v>
+        <v>0.000905710723591096</v>
       </c>
       <c r="T20">
-        <v>0.0009712522718969246</v>
+        <v>0.0008155116907030306</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.142017893942207</v>
+        <v>0.1477046666666667</v>
       </c>
       <c r="H21">
-        <v>0.142017893942207</v>
+        <v>0.443114</v>
       </c>
       <c r="I21">
-        <v>0.01624953741802763</v>
+        <v>0.01633672453749746</v>
       </c>
       <c r="J21">
-        <v>0.01624953741802763</v>
+        <v>0.02062724679644213</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.7886756952986</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N21">
-        <v>14.7886756952986</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O21">
-        <v>0.3175800485067096</v>
+        <v>0.3120250095359898</v>
       </c>
       <c r="P21">
-        <v>0.3175800485067096</v>
+        <v>0.3337682848888156</v>
       </c>
       <c r="Q21">
-        <v>2.100256576440611</v>
+        <v>2.314911924599556</v>
       </c>
       <c r="R21">
-        <v>2.100256576440611</v>
+        <v>20.834207321396</v>
       </c>
       <c r="S21">
-        <v>0.005160528881428807</v>
+        <v>0.005097466629599483</v>
       </c>
       <c r="T21">
-        <v>0.005160528881428807</v>
+        <v>0.006884720785226807</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.142017893942207</v>
+        <v>0.1477046666666667</v>
       </c>
       <c r="H22">
-        <v>0.142017893942207</v>
+        <v>0.443114</v>
       </c>
       <c r="I22">
-        <v>0.01624953741802763</v>
+        <v>0.01633672453749746</v>
       </c>
       <c r="J22">
-        <v>0.01624953741802763</v>
+        <v>0.02062724679644213</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.66838361848388</v>
+        <v>11.031218</v>
       </c>
       <c r="N22">
-        <v>9.66838361848388</v>
+        <v>33.093654</v>
       </c>
       <c r="O22">
-        <v>0.2076241173856907</v>
+        <v>0.2196203691428032</v>
       </c>
       <c r="P22">
-        <v>0.2076241173856907</v>
+        <v>0.2349244826382646</v>
       </c>
       <c r="Q22">
-        <v>1.373083479322415</v>
+        <v>1.629362377617334</v>
       </c>
       <c r="R22">
-        <v>1.373083479322415</v>
+        <v>14.664261398556</v>
       </c>
       <c r="S22">
-        <v>0.003373795864343741</v>
+        <v>0.003587877473509483</v>
       </c>
       <c r="T22">
-        <v>0.003373795864343741</v>
+        <v>0.004845845281905969</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.142017893942207</v>
+        <v>0.1477046666666667</v>
       </c>
       <c r="H23">
-        <v>0.142017893942207</v>
+        <v>0.443114</v>
       </c>
       <c r="I23">
-        <v>0.01624953741802763</v>
+        <v>0.01633672453749746</v>
       </c>
       <c r="J23">
-        <v>0.01624953741802763</v>
+        <v>0.02062724679644213</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.9309490561159</v>
+        <v>11.60895133333333</v>
       </c>
       <c r="N23">
-        <v>10.9309490561159</v>
+        <v>34.826854</v>
       </c>
       <c r="O23">
-        <v>0.2347371328569503</v>
+        <v>0.2311224542192443</v>
       </c>
       <c r="P23">
-        <v>0.2347371328569503</v>
+        <v>0.2472280836038346</v>
       </c>
       <c r="Q23">
-        <v>1.552390363739136</v>
+        <v>1.714696287039555</v>
       </c>
       <c r="R23">
-        <v>1.552390363739136</v>
+        <v>15.432266583356</v>
       </c>
       <c r="S23">
-        <v>0.003814369823759536</v>
+        <v>0.003775783869010162</v>
       </c>
       <c r="T23">
-        <v>0.003814369823759536</v>
+        <v>0.005099634695507725</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.142017893942207</v>
+        <v>0.1477046666666667</v>
       </c>
       <c r="H24">
-        <v>0.142017893942207</v>
+        <v>0.443114</v>
       </c>
       <c r="I24">
-        <v>0.01624953741802763</v>
+        <v>0.01633672453749746</v>
       </c>
       <c r="J24">
-        <v>0.01624953741802763</v>
+        <v>0.02062724679644213</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.95231111174481</v>
+        <v>2.099439</v>
       </c>
       <c r="N24">
-        <v>1.95231111174481</v>
+        <v>6.298317</v>
       </c>
       <c r="O24">
-        <v>0.04192498843998662</v>
+        <v>0.04179770249965122</v>
       </c>
       <c r="P24">
-        <v>0.04192498843998662</v>
+        <v>0.04471035029002197</v>
       </c>
       <c r="Q24">
-        <v>0.2772631124099667</v>
+        <v>0.310096937682</v>
       </c>
       <c r="R24">
-        <v>0.2772631124099667</v>
+        <v>2.790872439138</v>
       </c>
       <c r="S24">
-        <v>0.0006812616684059383</v>
+        <v>0.0006828375520370711</v>
       </c>
       <c r="T24">
-        <v>0.0006812616684059383</v>
+        <v>0.0009222514297876612</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.142017893942207</v>
+        <v>0.1477046666666667</v>
       </c>
       <c r="H25">
-        <v>0.142017893942207</v>
+        <v>0.443114</v>
       </c>
       <c r="I25">
-        <v>0.01624953741802763</v>
+        <v>0.01633672453749746</v>
       </c>
       <c r="J25">
-        <v>0.01624953741802763</v>
+        <v>0.02062724679644213</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.44310066731384</v>
+        <v>7.031714</v>
       </c>
       <c r="N25">
-        <v>6.44310066731384</v>
+        <v>14.063428</v>
       </c>
       <c r="O25">
-        <v>0.1383626407542117</v>
+        <v>0.1399942983981114</v>
       </c>
       <c r="P25">
-        <v>0.1383626407542117</v>
+        <v>0.09983314465729545</v>
       </c>
       <c r="Q25">
-        <v>0.9150355872295401</v>
+        <v>1.038616972465333</v>
       </c>
       <c r="R25">
-        <v>0.9150355872295401</v>
+        <v>6.231701834792</v>
       </c>
       <c r="S25">
-        <v>0.002248328908192678</v>
+        <v>0.002287048289750167</v>
       </c>
       <c r="T25">
-        <v>0.002248328908192678</v>
+        <v>0.002059282913310942</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.53131495580557</v>
+        <v>2.756382333333333</v>
       </c>
       <c r="H26">
-        <v>2.53131495580557</v>
+        <v>8.269147</v>
       </c>
       <c r="I26">
-        <v>0.2896303835340226</v>
+        <v>0.3048668665378966</v>
       </c>
       <c r="J26">
-        <v>0.2896303835340226</v>
+        <v>0.3849342064684462</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.78334550536005</v>
+        <v>2.7846805</v>
       </c>
       <c r="N26">
-        <v>2.78334550536005</v>
+        <v>5.569361</v>
       </c>
       <c r="O26">
-        <v>0.05977107205645091</v>
+        <v>0.05544016620420027</v>
       </c>
       <c r="P26">
-        <v>0.05977107205645091</v>
+        <v>0.03953565392176784</v>
       </c>
       <c r="Q26">
-        <v>7.045524104892107</v>
+        <v>7.675644134177833</v>
       </c>
       <c r="R26">
-        <v>7.045524104892107</v>
+        <v>46.053864805067</v>
       </c>
       <c r="S26">
-        <v>0.01731151852394958</v>
+        <v>0.01690186975101473</v>
       </c>
       <c r="T26">
-        <v>0.01731151852394958</v>
+        <v>0.01521862556958681</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.53131495580557</v>
+        <v>2.756382333333333</v>
       </c>
       <c r="H27">
-        <v>2.53131495580557</v>
+        <v>8.269147</v>
       </c>
       <c r="I27">
-        <v>0.2896303835340226</v>
+        <v>0.3048668665378966</v>
       </c>
       <c r="J27">
-        <v>0.2896303835340226</v>
+        <v>0.3849342064684462</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>14.7886756952986</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N27">
-        <v>14.7886756952986</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O27">
-        <v>0.3175800485067096</v>
+        <v>0.3120250095359898</v>
       </c>
       <c r="P27">
-        <v>0.3175800485067096</v>
+        <v>0.3337682848888156</v>
       </c>
       <c r="Q27">
-        <v>37.43479596406768</v>
+        <v>43.19959874110645</v>
       </c>
       <c r="R27">
-        <v>37.43479596406768</v>
+        <v>388.796388669958</v>
       </c>
       <c r="S27">
-        <v>0.09198083125175181</v>
+        <v>0.0951260869386945</v>
       </c>
       <c r="T27">
-        <v>0.09198083125175181</v>
+        <v>0.1284788298880105</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.53131495580557</v>
+        <v>2.756382333333333</v>
       </c>
       <c r="H28">
-        <v>2.53131495580557</v>
+        <v>8.269147</v>
       </c>
       <c r="I28">
-        <v>0.2896303835340226</v>
+        <v>0.3048668665378966</v>
       </c>
       <c r="J28">
-        <v>0.2896303835340226</v>
+        <v>0.3849342064684462</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>9.66838361848388</v>
+        <v>11.031218</v>
       </c>
       <c r="N28">
-        <v>9.66838361848388</v>
+        <v>33.093654</v>
       </c>
       <c r="O28">
-        <v>0.2076241173856907</v>
+        <v>0.2196203691428032</v>
       </c>
       <c r="P28">
-        <v>0.2076241173856907</v>
+        <v>0.2349244826382646</v>
       </c>
       <c r="Q28">
-        <v>24.47372405193382</v>
+        <v>30.40625441034867</v>
       </c>
       <c r="R28">
-        <v>24.47372405193382</v>
+        <v>273.656289693138</v>
       </c>
       <c r="S28">
-        <v>0.06013425274933052</v>
+        <v>0.06695497376846256</v>
       </c>
       <c r="T28">
-        <v>0.06013425274933052</v>
+        <v>0.09043046930437064</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.53131495580557</v>
+        <v>2.756382333333333</v>
       </c>
       <c r="H29">
-        <v>2.53131495580557</v>
+        <v>8.269147</v>
       </c>
       <c r="I29">
-        <v>0.2896303835340226</v>
+        <v>0.3048668665378966</v>
       </c>
       <c r="J29">
-        <v>0.2896303835340226</v>
+        <v>0.3849342064684462</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>10.9309490561159</v>
+        <v>11.60895133333333</v>
       </c>
       <c r="N29">
-        <v>10.9309490561159</v>
+        <v>34.826854</v>
       </c>
       <c r="O29">
-        <v>0.2347371328569503</v>
+        <v>0.2311224542192443</v>
       </c>
       <c r="P29">
-        <v>0.2347371328569503</v>
+        <v>0.2472280836038346</v>
       </c>
       <c r="Q29">
-        <v>27.66967482689495</v>
+        <v>31.99870836372644</v>
       </c>
       <c r="R29">
-        <v>27.66967482689495</v>
+        <v>287.988375273538</v>
       </c>
       <c r="S29">
-        <v>0.06798700581903533</v>
+        <v>0.07046157840436947</v>
       </c>
       <c r="T29">
-        <v>0.06798700581903533</v>
+        <v>0.09516654617875674</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.53131495580557</v>
+        <v>2.756382333333333</v>
       </c>
       <c r="H30">
-        <v>2.53131495580557</v>
+        <v>8.269147</v>
       </c>
       <c r="I30">
-        <v>0.2896303835340226</v>
+        <v>0.3048668665378966</v>
       </c>
       <c r="J30">
-        <v>0.2896303835340226</v>
+        <v>0.3849342064684462</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.95231111174481</v>
+        <v>2.099439</v>
       </c>
       <c r="N30">
-        <v>1.95231111174481</v>
+        <v>6.298317</v>
       </c>
       <c r="O30">
-        <v>0.04192498843998662</v>
+        <v>0.04179770249965122</v>
       </c>
       <c r="P30">
-        <v>0.04192498843998662</v>
+        <v>0.04471035029002197</v>
       </c>
       <c r="Q30">
-        <v>4.941914315545037</v>
+        <v>5.786856569510999</v>
       </c>
       <c r="R30">
-        <v>4.941914315545037</v>
+        <v>52.081709125599</v>
       </c>
       <c r="S30">
-        <v>0.01214275048153279</v>
+        <v>0.01274273458955187</v>
       </c>
       <c r="T30">
-        <v>0.01214275048153279</v>
+        <v>0.01721054320981587</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.53131495580557</v>
+        <v>2.756382333333333</v>
       </c>
       <c r="H31">
-        <v>2.53131495580557</v>
+        <v>8.269147</v>
       </c>
       <c r="I31">
-        <v>0.2896303835340226</v>
+        <v>0.3048668665378966</v>
       </c>
       <c r="J31">
-        <v>0.2896303835340226</v>
+        <v>0.3849342064684462</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.44310066731384</v>
+        <v>7.031714</v>
       </c>
       <c r="N31">
-        <v>6.44310066731384</v>
+        <v>14.063428</v>
       </c>
       <c r="O31">
-        <v>0.1383626407542117</v>
+        <v>0.1399942983981114</v>
       </c>
       <c r="P31">
-        <v>0.1383626407542117</v>
+        <v>0.09983314465729545</v>
       </c>
       <c r="Q31">
-        <v>16.30951708093237</v>
+        <v>19.38209224265267</v>
       </c>
       <c r="R31">
-        <v>16.30951708093237</v>
+        <v>116.292553455916</v>
       </c>
       <c r="S31">
-        <v>0.04007402470842253</v>
+        <v>0.04267962308580349</v>
       </c>
       <c r="T31">
-        <v>0.04007402470842253</v>
+        <v>0.03842919231790562</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.542827312960577</v>
+        <v>0.545685</v>
       </c>
       <c r="H32">
-        <v>0.542827312960577</v>
+        <v>1.09137</v>
       </c>
       <c r="I32">
-        <v>0.06210972778592109</v>
+        <v>0.06035493481978205</v>
       </c>
       <c r="J32">
-        <v>0.06210972778592109</v>
+        <v>0.05080398799458615</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.78334550536005</v>
+        <v>2.7846805</v>
       </c>
       <c r="N32">
-        <v>2.78334550536005</v>
+        <v>5.569361</v>
       </c>
       <c r="O32">
-        <v>0.05977107205645091</v>
+        <v>0.05544016620420027</v>
       </c>
       <c r="P32">
-        <v>0.05977107205645091</v>
+        <v>0.03953565392176784</v>
       </c>
       <c r="Q32">
-        <v>1.510875961715495</v>
+        <v>1.5195583786425</v>
       </c>
       <c r="R32">
-        <v>1.510875961715495</v>
+        <v>6.078233514569999</v>
       </c>
       <c r="S32">
-        <v>0.00371236501489884</v>
+        <v>0.003346087617652391</v>
       </c>
       <c r="T32">
-        <v>0.00371236501489884</v>
+        <v>0.002008568887199606</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.542827312960577</v>
+        <v>0.545685</v>
       </c>
       <c r="H33">
-        <v>0.542827312960577</v>
+        <v>1.09137</v>
       </c>
       <c r="I33">
-        <v>0.06210972778592109</v>
+        <v>0.06035493481978205</v>
       </c>
       <c r="J33">
-        <v>0.06210972778592109</v>
+        <v>0.05080398799458615</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>14.7886756952986</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N33">
-        <v>14.7886756952986</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O33">
-        <v>0.3175800485067096</v>
+        <v>0.3120250095359898</v>
       </c>
       <c r="P33">
-        <v>0.3175800485067096</v>
+        <v>0.3337682848888156</v>
       </c>
       <c r="Q33">
-        <v>8.027697089924331</v>
+        <v>8.552287088030001</v>
       </c>
       <c r="R33">
-        <v>8.027697089924331</v>
+        <v>51.31372252818</v>
       </c>
       <c r="S33">
-        <v>0.01972481036299135</v>
+        <v>0.01883224911268654</v>
       </c>
       <c r="T33">
-        <v>0.01972481036299135</v>
+        <v>0.016956759938465</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.542827312960577</v>
+        <v>0.545685</v>
       </c>
       <c r="H34">
-        <v>0.542827312960577</v>
+        <v>1.09137</v>
       </c>
       <c r="I34">
-        <v>0.06210972778592109</v>
+        <v>0.06035493481978205</v>
       </c>
       <c r="J34">
-        <v>0.06210972778592109</v>
+        <v>0.05080398799458615</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>9.66838361848388</v>
+        <v>11.031218</v>
       </c>
       <c r="N34">
-        <v>9.66838361848388</v>
+        <v>33.093654</v>
       </c>
       <c r="O34">
-        <v>0.2076241173856907</v>
+        <v>0.2196203691428032</v>
       </c>
       <c r="P34">
-        <v>0.2076241173856907</v>
+        <v>0.2349244826382646</v>
       </c>
       <c r="Q34">
-        <v>5.248262700293664</v>
+        <v>6.01957019433</v>
       </c>
       <c r="R34">
-        <v>5.248262700293664</v>
+        <v>36.11742116598</v>
       </c>
       <c r="S34">
-        <v>0.01289547741261737</v>
+        <v>0.01325517306471036</v>
       </c>
       <c r="T34">
-        <v>0.01289547741261737</v>
+        <v>0.01193510059558876</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.542827312960577</v>
+        <v>0.545685</v>
       </c>
       <c r="H35">
-        <v>0.542827312960577</v>
+        <v>1.09137</v>
       </c>
       <c r="I35">
-        <v>0.06210972778592109</v>
+        <v>0.06035493481978205</v>
       </c>
       <c r="J35">
-        <v>0.06210972778592109</v>
+        <v>0.05080398799458615</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>10.9309490561159</v>
+        <v>11.60895133333333</v>
       </c>
       <c r="N35">
-        <v>10.9309490561159</v>
+        <v>34.826854</v>
       </c>
       <c r="O35">
-        <v>0.2347371328569503</v>
+        <v>0.2311224542192443</v>
       </c>
       <c r="P35">
-        <v>0.2347371328569503</v>
+        <v>0.2472280836038346</v>
       </c>
       <c r="Q35">
-        <v>5.933617704240349</v>
+        <v>6.334830608329999</v>
       </c>
       <c r="R35">
-        <v>5.933617704240349</v>
+        <v>38.00898364998</v>
       </c>
       <c r="S35">
-        <v>0.01457945942299277</v>
+        <v>0.01394938065979055</v>
       </c>
       <c r="T35">
-        <v>0.01457945942299277</v>
+        <v>0.01256017259133375</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.542827312960577</v>
+        <v>0.545685</v>
       </c>
       <c r="H36">
-        <v>0.542827312960577</v>
+        <v>1.09137</v>
       </c>
       <c r="I36">
-        <v>0.06210972778592109</v>
+        <v>0.06035493481978205</v>
       </c>
       <c r="J36">
-        <v>0.06210972778592109</v>
+        <v>0.05080398799458615</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.95231111174481</v>
+        <v>2.099439</v>
       </c>
       <c r="N36">
-        <v>1.95231111174481</v>
+        <v>6.298317</v>
       </c>
       <c r="O36">
-        <v>0.04192498843998662</v>
+        <v>0.04179770249965122</v>
       </c>
       <c r="P36">
-        <v>0.04192498843998662</v>
+        <v>0.04471035029002197</v>
       </c>
       <c r="Q36">
-        <v>1.059767794851512</v>
+        <v>1.145632370715</v>
       </c>
       <c r="R36">
-        <v>1.059767794851512</v>
+        <v>6.873794224289999</v>
       </c>
       <c r="S36">
-        <v>0.002603949619435457</v>
+        <v>0.00252269760998309</v>
       </c>
       <c r="T36">
-        <v>0.002603949619435457</v>
+        <v>0.002271464099368018</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.542827312960577</v>
+        <v>0.545685</v>
       </c>
       <c r="H37">
-        <v>0.542827312960577</v>
+        <v>1.09137</v>
       </c>
       <c r="I37">
-        <v>0.06210972778592109</v>
+        <v>0.06035493481978205</v>
       </c>
       <c r="J37">
-        <v>0.06210972778592109</v>
+        <v>0.05080398799458615</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>6.44310066731384</v>
+        <v>7.031714</v>
       </c>
       <c r="N37">
-        <v>6.44310066731384</v>
+        <v>14.063428</v>
       </c>
       <c r="O37">
-        <v>0.1383626407542117</v>
+        <v>0.1399942983981114</v>
       </c>
       <c r="P37">
-        <v>0.1383626407542117</v>
+        <v>0.09983314465729545</v>
       </c>
       <c r="Q37">
-        <v>3.497491022372472</v>
+        <v>3.83710085409</v>
       </c>
       <c r="R37">
-        <v>3.497491022372472</v>
+        <v>15.34840341636</v>
       </c>
       <c r="S37">
-        <v>0.008593665952985281</v>
+        <v>0.00844934675495913</v>
       </c>
       <c r="T37">
-        <v>0.008593665952985281</v>
+        <v>0.00507192188263102</v>
       </c>
     </row>
   </sheetData>
